--- a/LF/PreTAS/Senegal/july 2021/sn_lf_pretas_2_partcipants_202107.xlsx
+++ b/LF/PreTAS/Senegal/july 2021/sn_lf_pretas_2_partcipants_202107.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\WHO\dsa-forms\LF\PreTAS\Senegal\july 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEBB51E4-0304-485A-8CA8-9339EB608484}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3E0AA12-0C43-466D-B2A5-C09854C55C2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -308,15 +308,6 @@
     <t>Sélectionner le code du site</t>
   </si>
   <si>
-    <t>. &gt;= 5 and . &lt;= 120</t>
-  </si>
-  <si>
-    <t>The age must be between 5 and 120 years</t>
-  </si>
-  <si>
-    <t>L'age doit être compris entre 5 et 120 ans</t>
-  </si>
-  <si>
     <t>sn_lf_pretas_2_partcipants_202107</t>
   </si>
   <si>
@@ -357,6 +348,15 @@
   </si>
   <si>
     <t>(Juillet 2021) 2. Pre-TAS FL Formulaire Participants</t>
+  </si>
+  <si>
+    <t>. &gt; 5 and . &lt;= 120</t>
+  </si>
+  <si>
+    <t>The age must be between 6 and 120 years</t>
+  </si>
+  <si>
+    <t>L'age doit être compris entre 6 et 120 ans</t>
   </si>
 </sst>
 </file>
@@ -867,11 +867,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I8" sqref="I8"/>
+      <selection pane="bottomRight" activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.7" x14ac:dyDescent="0.55000000000000004"/>
@@ -1099,32 +1099,32 @@
         <v>23</v>
       </c>
       <c r="B7" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="C7" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="D7" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="C7" s="32" t="s">
+      <c r="E7" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="F7" s="32" t="s">
         <v>97</v>
-      </c>
-      <c r="D7" s="32" t="s">
-        <v>99</v>
-      </c>
-      <c r="E7" s="32" t="s">
-        <v>98</v>
-      </c>
-      <c r="F7" s="32" t="s">
-        <v>100</v>
       </c>
       <c r="G7" s="32"/>
       <c r="H7" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="I7" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="J7" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="K7" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="I7" s="32" t="s">
-        <v>102</v>
-      </c>
-      <c r="J7" s="32" t="s">
-        <v>103</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>104</v>
       </c>
       <c r="L7" s="32"/>
       <c r="M7" s="31" t="s">
@@ -1154,7 +1154,7 @@
       <c r="I8" s="15"/>
       <c r="J8" s="8"/>
       <c r="K8" s="9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="L8" s="15"/>
       <c r="M8" s="9" t="s">
@@ -1181,16 +1181,16 @@
       <c r="F9" s="11"/>
       <c r="G9" s="9"/>
       <c r="H9" s="9" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="L9" s="9"/>
       <c r="M9" s="9" t="s">
@@ -1226,7 +1226,7 @@
         <v>62</v>
       </c>
       <c r="K10" s="12" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="L10" s="12"/>
       <c r="M10" s="9" t="s">
@@ -1256,7 +1256,7 @@
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
       <c r="K11" s="8" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="L11" s="8"/>
       <c r="M11" s="9" t="s">
@@ -1271,7 +1271,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C12" s="20" t="s">
         <v>78</v>
@@ -1286,10 +1286,10 @@
       <c r="I12" s="22"/>
       <c r="J12" s="22"/>
       <c r="K12" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="L12" s="22" t="s">
         <v>104</v>
-      </c>
-      <c r="L12" s="22" t="s">
-        <v>107</v>
       </c>
       <c r="M12" s="9" t="s">
         <v>71</v>
@@ -1320,7 +1320,7 @@
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="L13" s="8"/>
       <c r="M13" s="9"/>
@@ -1532,7 +1532,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1559,10 +1559,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C2">
         <v>20210722</v>

--- a/LF/PreTAS/Senegal/july 2021/sn_lf_pretas_2_partcipants_202107.xlsx
+++ b/LF/PreTAS/Senegal/july 2021/sn_lf_pretas_2_partcipants_202107.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\WHO\dsa-forms\LF\PreTAS\Senegal\july 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3E0AA12-0C43-466D-B2A5-C09854C55C2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{563CA982-F07E-4C43-B026-6C948A6D602A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -308,9 +308,6 @@
     <t>Sélectionner le code du site</t>
   </si>
   <si>
-    <t>sn_lf_pretas_2_partcipants_202107</t>
-  </si>
-  <si>
     <t>p_num</t>
   </si>
   <si>
@@ -347,9 +344,6 @@
     <t xml:space="preserve"> concat(${p_cluster_id}, '-' ,${p_num})</t>
   </si>
   <si>
-    <t>(Juillet 2021) 2. Pre-TAS FL Formulaire Participants</t>
-  </si>
-  <si>
     <t>. &gt; 5 and . &lt;= 120</t>
   </si>
   <si>
@@ -357,6 +351,12 @@
   </si>
   <si>
     <t>L'age doit être compris entre 6 et 120 ans</t>
+  </si>
+  <si>
+    <t>sn_lf_pretas_2_partcipants_202107_v2</t>
+  </si>
+  <si>
+    <t>(Juillet 2021) 2. Pre-TAS FL Formulaire Participants V2</t>
   </si>
 </sst>
 </file>
@@ -867,7 +867,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -1099,32 +1099,32 @@
         <v>23</v>
       </c>
       <c r="B7" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="C7" s="32" t="s">
         <v>93</v>
       </c>
-      <c r="C7" s="32" t="s">
+      <c r="D7" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="E7" s="32" t="s">
         <v>94</v>
       </c>
-      <c r="D7" s="32" t="s">
+      <c r="F7" s="32" t="s">
         <v>96</v>
-      </c>
-      <c r="E7" s="32" t="s">
-        <v>95</v>
-      </c>
-      <c r="F7" s="32" t="s">
-        <v>97</v>
       </c>
       <c r="G7" s="32"/>
       <c r="H7" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="I7" s="32" t="s">
         <v>98</v>
       </c>
-      <c r="I7" s="32" t="s">
+      <c r="J7" s="32" t="s">
         <v>99</v>
       </c>
-      <c r="J7" s="32" t="s">
+      <c r="K7" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>101</v>
       </c>
       <c r="L7" s="32"/>
       <c r="M7" s="31" t="s">
@@ -1154,7 +1154,7 @@
       <c r="I8" s="15"/>
       <c r="J8" s="8"/>
       <c r="K8" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L8" s="15"/>
       <c r="M8" s="9" t="s">
@@ -1181,16 +1181,16 @@
       <c r="F9" s="11"/>
       <c r="G9" s="9"/>
       <c r="H9" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="J9" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="I9" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="J9" s="9" t="s">
-        <v>108</v>
-      </c>
       <c r="K9" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L9" s="9"/>
       <c r="M9" s="9" t="s">
@@ -1226,7 +1226,7 @@
         <v>62</v>
       </c>
       <c r="K10" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L10" s="12"/>
       <c r="M10" s="9" t="s">
@@ -1256,7 +1256,7 @@
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
       <c r="K11" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L11" s="8"/>
       <c r="M11" s="9" t="s">
@@ -1271,7 +1271,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C12" s="20" t="s">
         <v>78</v>
@@ -1286,10 +1286,10 @@
       <c r="I12" s="22"/>
       <c r="J12" s="22"/>
       <c r="K12" s="22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L12" s="22" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M12" s="9" t="s">
         <v>71</v>
@@ -1320,7 +1320,7 @@
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L13" s="8"/>
       <c r="M13" s="9"/>
@@ -1532,7 +1532,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1559,10 +1559,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B2" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="C2">
         <v>20210722</v>
